--- a/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_03_end.xlsx
+++ b/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_03_end.xlsx
@@ -1116,7 +1116,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mostima"]   It's kind of weird to call a logistics firm "tough," but... Forget it. It's not like I've got any room to complain.
+    <t xml:space="preserve">[name="Mostima"]   It's kind of weird to call a logistics firm 'tough,' but... Forget it. It's not like I've got any room to complain.
 </t>
   </si>
   <si>
